--- a/HRMS.UI/wwwroot/SampleTemplates/MonthlyEarSample.xlsx
+++ b/HRMS.UI/wwwroot/SampleTemplates/MonthlyEarSample.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab07e246652fb90f/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDD07C9-9ECB-4BC3-B04D-1A80843D5C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4330"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Alpha_Emp_code</t>
   </si>
@@ -51,12 +52,15 @@
   </si>
   <si>
     <t>ChildEducationAllowance</t>
+  </si>
+  <si>
+    <t>Arrears</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,9 +97,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,45 +382,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10679</v>
       </c>
@@ -441,8 +457,11 @@
       <c r="I2">
         <v>800</v>
       </c>
+      <c r="J2">
+        <v>300</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10678</v>
       </c>
@@ -469,6 +488,9 @@
       </c>
       <c r="I3">
         <v>750</v>
+      </c>
+      <c r="J3">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
